--- a/biology/Zoologie/Ensis_leei/Ensis_leei.xlsx
+++ b/biology/Zoologie/Ensis_leei/Ensis_leei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le couteau américain, Ensis leei (anciennement Ensis directus ou Ensis americanus), est une espèce invasive de mollusques bivalves appartenant à la famille des Pharidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Couteau légèrement incurvé atteignant 19 cm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couteau légèrement incurvé atteignant 19 cm de long.
 Ensis leei se différencie de l'espèce native européenne, le couteau arqué européen Ensis magnus, par son périostracum de couleur vert olive, alors que le périostracum de Ensis magnus est jaune.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensis leei est originaire de la côte est de l'Amérique du Nord. Il aurait été transporté en Europe sous forme larvaire dans les eaux de ballast. Il a été signalé pour la première fois en Europe, sur les côtes de la mer du Nord en Allemagne en  1979, et à Ostende en 1984, puis à Gravelines en 1991, en Baie de Somme en 1996 et en Baie de Seine en 1998[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensis leei est originaire de la côte est de l'Amérique du Nord. Il aurait été transporté en Europe sous forme larvaire dans les eaux de ballast. Il a été signalé pour la première fois en Europe, sur les côtes de la mer du Nord en Allemagne en  1979, et à Ostende en 1984, puis à Gravelines en 1991, en Baie de Somme en 1996 et en Baie de Seine en 1998.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Durée de vie : de 5 à 10 ans.
-Les juvéniles peuvent vivre en population dense atteignant jusqu'à 10 000 individus par mètre carré[1].</t>
+Les juvéniles peuvent vivre en population dense atteignant jusqu'à 10 000 individus par mètre carré.</t>
         </is>
       </c>
     </row>
@@ -605,7 +623,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensis leei supplante le couteau arqué européen Ensis magnus.
 </t>
